--- a/2019工作日志_杜占坤.xlsx
+++ b/2019工作日志_杜占坤.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="502">
   <si>
     <t>出差</t>
   </si>
@@ -1222,10 +1222,24 @@
     <t>2019.9.2</t>
   </si>
   <si>
+    <t>1.技术支持，王鹏，上海版5513A-G，设置开入23的防抖时间，在装置菜单上对应的是开入26，前面三个被占用了，不需要重启装置。
+2.技术支持，李泽建，上海版5513A-G，两侧电压正常，只在一侧加电流，差动不动的原因，差动电流不能单独作为启动元件。弱电源侧（对侧）差动动作的情况，本侧加故障电流，正常电压，开关合位，对侧，无电压，无电流，开关合位。
+3.学习机器人的资料。</t>
+  </si>
+  <si>
     <t>2019.9.3</t>
   </si>
   <si>
+    <t>1.参加电气事业部质控中心组织的质量分析会。
+2.技术支持，王祥明，老的LCS-621装置，报开入3分，接着开关跳开。怀疑是非电量跳的。老的装置，开入的描述，图纸、说明书、菜单、配置文件不对应。</t>
+  </si>
+  <si>
     <t>2019.9.4</t>
+  </si>
+  <si>
+    <t>1.技术支持，新能源事业部，5516A-G装置，开关跳闸，装置上没有保护动作记录，也没有非电量动作记录，没有录波文件，所以怀疑是开关偷跳。
+2.技术支持，梁嵩，LCS-5561A-DA-G装置，看不到光卡版的版本信息，让现场更新定值程序，待观察。
+3.低频低压装置相关资料盖章，并将扫描件发给国网电科院。</t>
   </si>
   <si>
     <t>2019.9.5</t>
@@ -1587,10 +1601,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1607,6 +1621,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1614,59 +1635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,37 +1644,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,7 +1665,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,9 +1680,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1756,6 +1709,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1766,139 +1780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,7 +1798,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,19 +1870,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,6 +1971,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1971,6 +2009,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,54 +2063,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2048,162 +2071,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2628,9 +2642,9 @@
   <dimension ref="B1:I366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <selection pane="bottomLeft" activeCell="G248" sqref="G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5638,634 +5652,661 @@
         <v>377</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" ht="81" spans="2:5">
+      <c r="B246" t="s">
+        <v>26</v>
+      </c>
       <c r="C246" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="247" spans="3:3">
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" ht="40.5" spans="2:5">
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
       <c r="C247" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="248" spans="3:3">
+        <v>380</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="248" ht="67.5" spans="2:5">
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
       <c r="C248" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="3:3">
       <c r="C249" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="3:3">
       <c r="C250" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="254" spans="3:5">
       <c r="C254" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="3:5">
       <c r="C255" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="3:5">
       <c r="C256" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="3:5">
       <c r="C257" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="3:5">
       <c r="C258" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E258" s="4"/>
     </row>
     <row r="259" spans="3:5">
       <c r="C259" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="3:5">
       <c r="C260" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="3:5">
       <c r="C261" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="3:5">
       <c r="C262" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="3:5">
       <c r="C263" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="3:5">
       <c r="C264" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="3:5">
       <c r="C265" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="3:5">
       <c r="C266" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="3:5">
       <c r="C267" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="3:5">
       <c r="C268" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E268" s="4"/>
     </row>
     <row r="269" spans="3:5">
       <c r="C269" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="3:5">
       <c r="C270" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="3:5">
       <c r="C271" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="277" spans="3:3">
       <c r="C277" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="278" spans="3:3">
       <c r="C278" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="280" spans="3:3">
       <c r="C280" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="281" spans="3:3">
       <c r="C281" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="282" spans="3:3">
       <c r="C282" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283" spans="3:3">
       <c r="C283" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="284" spans="3:3">
       <c r="C284" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="286" spans="3:3">
       <c r="C286" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="287" spans="3:3">
       <c r="C287" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="307" spans="3:5">
       <c r="C307" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="3:5">
       <c r="C308" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="3:5">
       <c r="C309" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="3:5">
       <c r="C312" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="326" spans="3:5">
       <c r="C326" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="3:5">
       <c r="C327" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="3:5">
       <c r="C328" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E328" s="4"/>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="3:3">
       <c r="C353" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="354" spans="3:3">
       <c r="C354" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="355" spans="3:3">
       <c r="C355" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="356" spans="3:3">
       <c r="C356" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="3:3">
       <c r="C358" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="359" spans="3:3">
       <c r="C359" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -6284,10 +6325,10 @@
     <mergeCell ref="G240:G243"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 D122 D203 D237 D316 D350 D1:D7 D8:D11 D12:D13 D14:D17 D18:D31 D33:D42 D43:D47 D48:D49 D50:D54 D55:D56 D57:D61 D62:D63 D64:D68 D69:D70 D71:D73 D74:D75 D76:D78 D79:D83 D84:D95 D96:D98 D99:D102 D103:D105 D106:D110 D111:D112 D113:D115 D116:D121 D123:D126 D127:D130 D131:D137 D138:D139 D140:D146 D147:D150 D151:D158 D159:D163 D164:D170 D171:D173 D174:D175 D176:D180 D181:D182 D183:D199 D200:D202 D204:D208 D209:D212 D213:D214 D215:D236 D238:D239 D240:D243 D244:D250 D251:D256 D257:D258 D259:D261 D262:D264 D265:D268 D269:D270 D271:D273 D274:D281 D282:D284 D285:D287 D288:D292 D293:D295 D296:D304 D305:D309 D310:D311 D312:D315 D317:D318 D319:D325 D326:D328 D329:D330 D331:D332 D333:D341 D342:D343 D344:D349 D351:D356 D357:D363 D364:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 D122 D203 D237 D316 D350 D1:D7 D8:D11 D12:D13 D14:D17 D18:D31 D33:D42 D43:D47 D48:D49 D50:D54 D55:D56 D57:D61 D62:D63 D64:D68 D69:D70 D71:D73 D74:D75 D76:D78 D79:D83 D84:D95 D96:D98 D99:D102 D103:D105 D106:D110 D111:D112 D113:D115 D116:D121 D123:D126 D127:D130 D131:D137 D138:D139 D140:D146 D147:D150 D151:D158 D159:D163 D164:D170 D171:D173 D174:D175 D176:D180 D181:D182 D183:D199 D200:D202 D204:D208 D209:D212 D213:D214 D215:D236 D238:D239 D240:D243 D244:D245 D246:D248 D249:D250 D251:D256 D257:D258 D259:D261 D262:D264 D265:D268 D269:D270 D271:D273 D274:D281 D282:D284 D285:D287 D288:D292 D293:D295 D296:D304 D305:D309 D310:D311 D312:D315 D317:D318 D319:D325 D326:D328 D329:D330 D331:D332 D333:D341 D342:D343 D344:D349 D351:D356 D357:D363 D364:D1048576">
       <formula1>"家,公司,南京,北京,许昌,石家庄,上海,杭州,太原"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 B112 B122 B158 B203 B269 B316 B331 B350 B1:B3 B4:B5 B6:B7 B8:B11 B12:B13 B14:B17 B18:B31 B33:B42 B43:B47 B48:B49 B50:B54 B55:B56 B57:B61 B62:B63 B64:B68 B69:B70 B71:B72 B73:B75 B76:B78 B79:B80 B81:B95 B96:B98 B99:B102 B103:B105 B106:B111 B113:B115 B116:B121 B123:B130 B131:B145 B146:B150 B151:B157 B159:B161 B162:B163 B164:B170 B171:B173 B174:B182 B183:B199 B200:B202 B204:B208 B209:B210 B211:B215 B216:B217 B218:B222 B223:B224 B225:B229 B230:B231 B232:B236 B237:B238 B239:B243 B244:B245 B246:B249 B250:B256 B257:B261 B262:B264 B265:B268 B270:B274 B275:B281 B282:B283 B284:B287 B288:B290 B291:B297 B298:B304 B305:B311 B312:B315 B317:B318 B319:B325 B326:B328 B329:B330 B332:B341 B342:B343 B344:B349 B351:B357 B358:B365 B366:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 B112 B122 B158 B203 B249 B269 B316 B331 B350 B1:B3 B4:B5 B6:B7 B8:B11 B12:B13 B14:B17 B18:B31 B33:B42 B43:B47 B48:B49 B50:B54 B55:B56 B57:B61 B62:B63 B64:B68 B69:B70 B71:B72 B73:B75 B76:B78 B79:B80 B81:B95 B96:B98 B99:B102 B103:B105 B106:B111 B113:B115 B116:B121 B123:B130 B131:B145 B146:B150 B151:B157 B159:B161 B162:B163 B164:B170 B171:B173 B174:B182 B183:B199 B200:B202 B204:B208 B209:B210 B211:B215 B216:B217 B218:B222 B223:B224 B225:B229 B230:B231 B232:B236 B237:B238 B239:B243 B244:B245 B246:B248 B250:B256 B257:B261 B262:B264 B265:B268 B270:B274 B275:B281 B282:B283 B284:B287 B288:B290 B291:B297 B298:B304 B305:B311 B312:B315 B317:B318 B319:B325 B326:B328 B329:B330 B332:B341 B342:B343 B344:B349 B351:B357 B358:B365 B366:B1048576">
       <formula1>"加班,上班+加班,放假,出差,上班,上班+出差,请假半天,请假一天,请假+出差"</formula1>
     </dataValidation>
   </dataValidations>
